--- a/남근우 일정표.xlsx
+++ b/남근우 일정표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\DOCUME~1\카카오~1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\CapstoneDesign-2019-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5F59A8-8862-45E7-8012-E1A3749FECB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D50972-762F-4DE1-AB0F-B05C1837040C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3045" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3255" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Mid
 Demo</t>
@@ -32,34 +32,7 @@
 Demo</t>
   </si>
   <si>
-    <t>장혁재</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가게 배치도 입력 UI 및 저장 기능 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">가게 사용 통계 뷰어 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">가게 자동 배치 알고리즘 구현 </t>
-  </si>
-  <si>
     <t>남근우</t>
-  </si>
-  <si>
-    <t>조성욱</t>
-  </si>
-  <si>
-    <t>길찾기 알고리즘 설계</t>
-  </si>
-  <si>
-    <t>안드로이드 어플리케이션 제작</t>
-  </si>
-  <si>
-    <t>알고리즘 연동</t>
-  </si>
-  <si>
-    <t>오류 수정 및 추가 기능 구현</t>
   </si>
   <si>
     <t>4월</t>
@@ -74,19 +47,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>판매자용 로그인/가입 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">액티비티 및 GUI 설계 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>데이터베이스 설계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오류 수정 및 추가 기능 구현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -245,16 +210,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -273,15 +232,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -297,16 +247,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -314,12 +264,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -662,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -673,419 +617,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="5" t="s">
-        <v>14</v>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="3">
         <v>3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>4</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>5</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>6</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>7</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>8</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>9</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <v>10</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <v>11</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="3">
         <v>12</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="3">
         <v>13</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
+      <c r="A4" s="16"/>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="22" t="s">
-        <v>1</v>
-      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="22"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="22"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="22"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="22"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="22"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="22"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="22"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="22"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="22"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="22"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="22"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="22"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="22"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="6">
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="N3:N8"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="N17:N21"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="N4:N8"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="N10:N15"/>
+    <mergeCell ref="A3:A8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/남근우 일정표.xlsx
+++ b/남근우 일정표.xlsx
@@ -185,7 +185,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -223,6 +223,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -246,7 +250,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="표준 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -319,14 +323,14 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,19 +407,19 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -424,16 +428,16 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="8"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -441,16 +445,16 @@
       <c r="C5" s="7"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="6"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -458,16 +462,16 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="6"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
         <v>10</v>
@@ -476,16 +480,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="7"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -494,23 +498,26 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="11"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="7"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="7"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="10"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="A3:A8"/>
-    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="I3:I8"/>
     <mergeCell ref="N3:N8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -536,7 +543,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.6"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -562,7 +569,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.6"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/남근우 일정표.xlsx
+++ b/남근우 일정표.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">4월</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t xml:space="preserve">오류 수정 및 추가기능 구현</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5주차 한 일</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB 수정: 맵 사이즈의 최대 저장 크기 증가</t>
   </si>
 </sst>
 </file>
@@ -185,7 +191,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -223,10 +229,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -322,7 +324,7 @@
   </sheetPr>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -407,15 +409,15 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -428,14 +430,14 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
@@ -445,14 +447,14 @@
       <c r="C5" s="7"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="6"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
@@ -462,14 +464,14 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="11"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
@@ -480,14 +482,14 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="11"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
@@ -498,14 +500,14 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="7"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="11"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -535,17 +537,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.6"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/남근우 일정표.xlsx
+++ b/남근우 일정표.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">4월</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">DB 수정: 맵 사이즈의 최대 저장 크기 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기타 등등</t>
   </si>
 </sst>
 </file>
@@ -537,10 +540,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -556,6 +559,11 @@
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/남근우 일정표.xlsx
+++ b/남근우 일정표.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,15 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">4월</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5월</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6월</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">9월</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10월</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11월</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12월</t>
   </si>
   <si>
     <t xml:space="preserve">남근우</t>
@@ -50,13 +53,13 @@
     <t xml:space="preserve">데이터베이스 설계</t>
   </si>
   <si>
-    <t xml:space="preserve">관련 질의문 생성</t>
-  </si>
-  <si>
-    <t xml:space="preserve">프론트엔드 프레임워크 생성</t>
-  </si>
-  <si>
-    <t xml:space="preserve">암호화 구현</t>
+    <t xml:space="preserve">데이터 베이스 연동을 위한 API 생성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상품 재고량 표시 용 대시보드 구현</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상품 정보 업로드 기능 구현</t>
   </si>
   <si>
     <t xml:space="preserve">오류 수정 및 추가기능 구현</t>
@@ -128,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -151,13 +154,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -203,48 +199,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -325,10 +321,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -338,187 +334,191 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="n">
+      <c r="J2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="3" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="10" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="10" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="10"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="10"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="10"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="10"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="A3:A8"/>
@@ -542,7 +542,7 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -553,17 +553,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
